--- a/data/trans_dic/P19C05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,14%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>13,25; 23,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>2,79; 9,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>7,36; 14,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>10,97; 20,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>5,14; 11,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,85; 10,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>13,43; 20,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>4,63; 9,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>7,12; 11,14</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,78%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>10,74; 18,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>8,2; 14,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>10,18; 17,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>5,72; 10,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>10,7; 16,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>12,67; 20,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>11,49; 18,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>10,98; 16,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>11,67; 16,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>11,55; 16,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>11,76; 17,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,15; 12,74</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,44%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>9,16; 18,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>12,59; 21,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>7,95; 15,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>9,19; 15,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>19,04; 28,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>18,99; 29,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>6,87; 13,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>12,11; 18,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>15,71; 22,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>17,13; 24,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>8,17; 12,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>11,34; 15,65</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,36%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>12,18; 20,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>11,5; 18,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>9,63; 17,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>9,49; 16,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>17,61; 27,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>13,6; 19,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>12,5; 21,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>9,88; 15,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>16,62; 22,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>13,53; 17,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>12,28; 18,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>9,95; 14,62</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,49%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>5,2; 13,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>11,96; 22,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>8,96; 22,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>7,65; 15,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>8,84; 19,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>12,81; 23,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>12,06; 23,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>17,57; 24,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>8,07; 14,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>13,9; 21,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>12,41; 20,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>14,21; 19,52</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,0%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>14,65; 26,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>7,94; 16,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>4,24; 10,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>9,78; 16,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>10,97; 21,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>16,25; 25,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>3,7; 10,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>8,52; 14,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>14,05; 21,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>13,48; 19,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>4,78; 9,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>10,14; 14,14</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,42%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>12,41; 18,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>16,23; 23,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>6,07; 11,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>10,16; 16,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>12,17; 18,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>17,81; 24,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>6,47; 11,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>6,19; 12,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>13,1; 17,4</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>18,08; 23,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>6,9; 10,66</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>8,74; 13,38</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,46%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>5,9; 10,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>10,39; 15,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>9,6; 15,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>5,68; 9,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>10,49; 16,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>12,92; 18,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>9,63; 14,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>7,6; 11,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,14; 12,92</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>12,26; 16,37</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>10,13; 13,88</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>7,21; 9,86</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>12,22; 15,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,75; 16,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>9,57; 11,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,29; 11,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>14,73; 17,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>16,74; 19,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>10,39; 12,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>10,63; 12,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>13,91; 15,89</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,67; 17,67</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>10,38; 12,15</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>10,27; 11,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>8,77%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,79; 21,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,36; 14,27</t>
+          <t>6,87; 13,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,19; 21,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,7</t>
+          <t>5,67; 10,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,12; 19,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,14</t>
+          <t>6,75; 10,73</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,34%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,72; 10,54</t>
+          <t>5,42; 10,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,98; 16,06</t>
+          <t>10,7; 15,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 12,74</t>
+          <t>8,77; 12,24</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>13,09%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 15,2</t>
+          <t>8,87; 14,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 18,09</t>
+          <t>11,93; 17,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 15,65</t>
+          <t>11,05; 15,24</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>11,04%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 18,04</t>
+          <t>10,65; 18,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,49; 16,48</t>
+          <t>9,18; 16,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,6; 19,84</t>
+          <t>13,59; 21,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 15,08</t>
+          <t>6,2; 13,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,53; 17,9</t>
+          <t>13,24; 19,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,62</t>
+          <t>7,63; 13,52</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>16,59%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,18</t>
+          <t>7,65; 15,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,57; 24,47</t>
+          <t>17,82; 24,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,21; 19,52</t>
+          <t>14,28; 19,56</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>11,93%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,78; 16,29</t>
+          <t>9,66; 16,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,52; 14,21</t>
+          <t>8,52; 14,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,14; 14,14</t>
+          <t>10,07; 14,03</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>10,53%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,16; 16,05</t>
+          <t>10,02; 15,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,19; 12,98</t>
+          <t>3,97; 12,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,74; 13,38</t>
+          <t>6,93; 13,07</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,57</t>
+          <t>2,35; 8,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,6; 11,07</t>
+          <t>7,73; 11,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,21; 9,86</t>
+          <t>4,41; 9,34</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>10,36%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,29; 11,49</t>
+          <t>7,55; 10,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,63; 12,76</t>
+          <t>8,98; 12,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>10,27; 11,83</t>
+          <t>9,06; 11,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,25; 23,71</t>
+          <t>12,11; 24,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 21,59</t>
+          <t>11,05; 21,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,05</t>
+          <t>2,78; 8,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,87; 13,46</t>
+          <t>6,8; 13,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,97; 20,96</t>
+          <t>10,99; 21,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,19; 21,25</t>
+          <t>11,37; 20,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,98</t>
+          <t>5,09; 12,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,61</t>
+          <t>5,65; 10,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,43; 20,85</t>
+          <t>13,26; 21,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,12; 19,78</t>
+          <t>12,23; 19,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,12</t>
+          <t>4,52; 9,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,75; 10,73</t>
+          <t>6,83; 11,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,74; 18,38</t>
+          <t>10,99; 18,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,2; 14,92</t>
+          <t>8,4; 15,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 17,91</t>
+          <t>10,07; 17,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 10,11</t>
+          <t>5,4; 10,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,7; 16,77</t>
+          <t>10,53; 17,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,67; 20,03</t>
+          <t>12,33; 19,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,49; 18,91</t>
+          <t>11,38; 19,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,7; 15,67</t>
+          <t>10,71; 15,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 16,42</t>
+          <t>11,46; 16,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,55; 16,64</t>
+          <t>11,44; 16,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,76; 17,0</t>
+          <t>11,74; 17,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 12,24</t>
+          <t>8,78; 12,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 18,22</t>
+          <t>9,22; 17,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,59; 21,4</t>
+          <t>12,74; 21,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,95; 15,33</t>
+          <t>8,05; 15,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,69</t>
+          <t>8,6; 14,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,04; 28,95</t>
+          <t>18,55; 28,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,99; 29,02</t>
+          <t>18,29; 28,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 13,85</t>
+          <t>6,96; 13,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,93; 17,83</t>
+          <t>11,77; 17,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,71; 22,46</t>
+          <t>15,68; 22,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,13; 24,09</t>
+          <t>17,0; 23,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 12,95</t>
+          <t>8,06; 13,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,05; 15,24</t>
+          <t>11,21; 15,28</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 20,73</t>
+          <t>12,35; 21,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,65; 18,81</t>
+          <t>10,47; 19,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 17,58</t>
+          <t>9,6; 16,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,18; 16,17</t>
+          <t>9,03; 16,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,61; 27,19</t>
+          <t>18,1; 27,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 21,76</t>
+          <t>13,74; 21,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 21,15</t>
+          <t>11,91; 20,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 13,46</t>
+          <t>6,09; 13,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 22,94</t>
+          <t>16,5; 23,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,24; 19,28</t>
+          <t>13,11; 19,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 18,04</t>
+          <t>12,23; 17,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 13,52</t>
+          <t>7,74; 13,44</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,2; 13,8</t>
+          <t>5,1; 13,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,96; 22,9</t>
+          <t>12,32; 23,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,96; 22,28</t>
+          <t>8,96; 22,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,19</t>
+          <t>8,1; 15,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,84; 19,38</t>
+          <t>8,57; 18,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,81; 23,43</t>
+          <t>12,86; 23,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,06; 23,74</t>
+          <t>12,03; 24,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,82; 24,7</t>
+          <t>17,88; 24,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,07; 14,69</t>
+          <t>8,07; 14,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,9; 21,73</t>
+          <t>13,85; 21,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,41; 20,87</t>
+          <t>12,07; 20,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,28; 19,56</t>
+          <t>14,38; 19,31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,65; 26,71</t>
+          <t>14,73; 25,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,94; 16,2</t>
+          <t>7,75; 15,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 10,93</t>
+          <t>4,6; 11,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,66; 16,37</t>
+          <t>9,77; 16,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,97; 21,56</t>
+          <t>11,22; 21,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,25; 25,54</t>
+          <t>15,99; 26,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,7; 10,65</t>
+          <t>3,61; 10,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,52; 14,23</t>
+          <t>8,61; 14,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,05; 21,34</t>
+          <t>13,65; 21,65</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,48; 19,5</t>
+          <t>13,26; 19,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,58</t>
+          <t>4,78; 9,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,07; 14,03</t>
+          <t>10,06; 14,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,41; 18,98</t>
+          <t>12,21; 18,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,23; 23,42</t>
+          <t>16,18; 23,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,4</t>
+          <t>5,85; 11,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,95</t>
+          <t>10,01; 15,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,17; 18,31</t>
+          <t>12,2; 18,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,81; 24,61</t>
+          <t>17,89; 24,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 11,72</t>
+          <t>6,48; 11,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,97; 12,72</t>
+          <t>3,95; 12,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,1; 17,4</t>
+          <t>13,11; 17,58</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,08; 23,05</t>
+          <t>18,24; 23,15</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,9; 10,66</t>
+          <t>6,84; 10,72</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,93; 13,07</t>
+          <t>6,8; 12,99</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,96</t>
+          <t>6,07; 10,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,39; 15,82</t>
+          <t>10,19; 16,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,6; 15,05</t>
+          <t>9,49; 14,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,35; 8,85</t>
+          <t>2,34; 8,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,49; 16,1</t>
+          <t>10,7; 16,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,92; 18,6</t>
+          <t>13,07; 18,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,6</t>
+          <t>9,59; 14,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,73; 11,25</t>
+          <t>7,77; 11,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,14; 12,92</t>
+          <t>9,15; 12,88</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,26; 16,37</t>
+          <t>12,49; 16,56</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,13; 13,88</t>
+          <t>10,2; 13,86</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,41; 9,34</t>
+          <t>4,51; 9,33</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,22; 15,05</t>
+          <t>12,29; 14,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,75; 16,54</t>
+          <t>13,63; 16,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,57; 11,91</t>
+          <t>9,43; 11,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,55; 10,84</t>
+          <t>7,3; 10,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,73; 17,43</t>
+          <t>14,76; 17,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,74; 19,53</t>
+          <t>16,78; 19,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,39; 12,99</t>
+          <t>10,45; 12,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,98; 12,29</t>
+          <t>8,75; 12,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,91; 15,89</t>
+          <t>14,04; 16,0</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>15,67; 17,67</t>
+          <t>15,69; 17,75</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>10,38; 12,15</t>
+          <t>10,33; 12,11</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>9,06; 11,29</t>
+          <t>8,96; 11,33</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34917</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38448</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12616</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29337</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31017</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>38869</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19739</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22683</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65934</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>77317</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32356</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>52021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23187; 46175</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27690; 52860</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6825; 21867</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>20776; 40431</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22123; 43637</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28336; 51353</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12528; 30173</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16245; 31424</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>52056; 83296</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>61115; 96265</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22230; 44588</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40530; 65397</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>58257</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>46229</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>49422</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>38287</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>59606</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>70317</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>58602</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>65965</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>117862</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>116546</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>108024</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>104252</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>45018; 74885</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>34149; 61085</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>36582; 64943</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>27353; 52299</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>46456; 75254</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>53966; 86751</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>44757; 74941</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>53720; 78281</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>97550; 136998</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>96558; 138823</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>88850; 129468</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>88546; 122579</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>31210</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>49329</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32418</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>34330</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>68208</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>75593</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30173</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>49015</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>99418</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>124922</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>62591</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>83345</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21798; 42359</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37422; 62518</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23378; 43742</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25889; 44076</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>53576; 83231</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>60126; 93249</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21407; 42399</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39478; 59261</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>82379; 117057</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>105839; 145624</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>48230; 78397</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>71321; 97270</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43580</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>44659</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>43027</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>37794</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>67157</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>59615</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>56957</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>48686</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>110737</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>104273</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>99984</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>86480</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>33032; 56252</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32781; 60369</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>31690; 55873</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28000; 50391</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>54225; 81382</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>47110; 74831</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>41546; 71065</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>28843; 64696</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>93546; 131585</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>85982; 126017</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>83031; 122139</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>60637; 105289</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>14583</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33530</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17310</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18853</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>23037</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>34097</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>25372</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>42651</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>37620</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>67627</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>42682</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>61504</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8688; 22623</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23659; 45690</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10681; 26425</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13646; 26854</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14911; 32570</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>25030; 45427</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17507; 36206</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>36165; 50291</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>27791; 49254</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>53537; 83508</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>31961; 55393</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>53291; 71585</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>36815</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>29408</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>16647</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>32214</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>32573</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>54649</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>15938</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>27443</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>69388</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>84056</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>32585</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>59658</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>27878; 48583</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>19369; 39864</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>10738; 27267</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>24781; 40736</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>22939; 43517</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>42341; 69809</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>8911; 25519</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21217; 35310</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>53747; 85261</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>68280; 101756</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>22957; 45109</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>50296; 70397</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>70989</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>114324</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>36422</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>75453</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>82035</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>131282</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>43453</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>74969</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>153024</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>245606</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>79875</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>150422</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>56705; 87753</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>93047; 134688</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>25865; 50106</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>60017; 94345</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>65813; 100463</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>111958; 154076</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>31584; 57372</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>32732; 106422</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>131583; 176480</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>219121; 278074</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>63543; 99589</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>97093; 185436</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>43301</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>81219</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>75864</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>54347</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>78587</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>109277</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>83356</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>66517</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>121888</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>190496</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>159220</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>120864</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>31919; 56934</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>64588; 101701</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>60773; 95793</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>21257; 79422</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>63376; 97380</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>91781; 131383</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>66273; 102249</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>54723; 78107</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>102254; 143977</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>166883; 221239</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>135796; 184505</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>72784; 150426</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>333652</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>437147</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>283725</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>320615</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>442221</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>573698</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>333590</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>397930</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>775873</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1010844</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>617315</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>718545</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>301710; 365333</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>397309; 481554</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>251292; 316354</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>244798; 361711</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>404636; 484194</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>528109; 617858</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>299632; 371248</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>312993; 437865</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>729461; 831117</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>950909; 1076018</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>571410; 669867</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>620979; 785501</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>